--- a/test/e2e/movies/movie_test_cases.xlsx
+++ b/test/e2e/movies/movie_test_cases.xlsx
@@ -1061,7 +1061,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>//div[contains(@class, 'bg-red-600')]</t>
+          <t>h1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr"/>
@@ -1387,12 +1387,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>(Phim Sắp Chiếu) Hiển thị 'Upcoming Release'</t>
+          <t>(Phim Đang Chiếu) Hiển thị 'Select Cinema'</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Phim là phim sắp chiếu</t>
+          <t>Phim là phim đang chiếu</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>Thông báo 'Upcoming Release' hiển thị</t>
+          <t>'Select Cinema' dropdown hiển thị</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>//h3[contains(., 'Upcoming Release')]</t>
+          <t>//h3[contains(., 'Select Cinema')]</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr"/>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>//input[@type='text' and @placeholder='Search movies...']</t>
+          <t>header</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr"/>
